--- a/public/excel/permasalahan.xlsx
+++ b/public/excel/permasalahan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/salajurakan/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404ECCD2-B474-6F45-8573-E709501A6D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAA114E-C470-CE4A-9235-990AC6093468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31900" windowHeight="15420" firstSheet="28" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31900" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permasalahan" sheetId="2" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="18">
   <si>
     <t>PEMERINTAH KOTA BANJARMASIN</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>(7)</t>
+  </si>
+  <si>
+    <t>SUB KEGIATAN</t>
+  </si>
+  <si>
+    <t>DESKRIPSI</t>
   </si>
 </sst>
 </file>
@@ -217,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -279,11 +285,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -313,6 +330,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,7 +794,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -848,10 +868,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -927,7 +947,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1001,10 +1021,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1080,7 +1100,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1154,10 +1174,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1233,7 +1253,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1307,10 +1327,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1386,7 +1406,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1460,10 +1480,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1539,7 +1559,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1613,10 +1633,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1692,7 +1712,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1766,10 +1786,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1845,7 +1865,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1919,10 +1939,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1998,7 +2018,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2072,10 +2092,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -2151,7 +2171,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2225,10 +2245,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -2303,8 +2323,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2378,10 +2398,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -2457,7 +2477,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2531,10 +2551,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -2610,7 +2630,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2684,10 +2704,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -2763,7 +2783,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2837,10 +2857,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -2916,7 +2936,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2990,10 +3010,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -3069,7 +3089,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3143,10 +3163,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -3222,7 +3242,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3296,10 +3316,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -3375,7 +3395,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3449,10 +3469,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -3528,7 +3548,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3602,10 +3622,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -3681,7 +3701,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3755,10 +3775,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -3834,7 +3854,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3908,10 +3928,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -3987,7 +4007,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4061,10 +4081,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -4140,7 +4160,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4214,10 +4234,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -4293,7 +4313,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4367,10 +4387,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -4446,7 +4466,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4520,10 +4540,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -4599,7 +4619,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4673,10 +4693,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -4752,7 +4772,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4826,10 +4846,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -4905,7 +4925,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4979,10 +4999,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -5058,7 +5078,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5132,10 +5152,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -5211,7 +5231,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5285,10 +5305,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -5364,7 +5384,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5438,10 +5458,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -5517,7 +5537,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5591,10 +5611,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -5670,7 +5690,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5744,10 +5764,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -5823,7 +5843,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5897,10 +5917,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -5976,7 +5996,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6050,10 +6070,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -6128,8 +6148,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6203,10 +6223,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -6282,7 +6302,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6356,10 +6376,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -6435,7 +6455,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6509,10 +6529,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -6588,7 +6608,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6662,10 +6682,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -6741,7 +6761,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6815,10 +6835,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -6894,7 +6914,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6968,10 +6988,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
